--- a/biology/Zoologie/Formation_de_Djadokhta/Formation_de_Djadokhta.xlsx
+++ b/biology/Zoologie/Formation_de_Djadokhta/Formation_de_Djadokhta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Formation de Djadokhta (ou Djadochta) est une formation géologique datant de la fin du Crétacé supérieur, composante du bassin de Nemegt en Mongolie, dans la partie nord-ouest du désert de Gobi.
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a été découverte en 1922 par une expédition conduite par Roy Chapman Andrews. Son âge n'est pas clairement établi ; il se place entre le Santonien terminal et le Campanien supérieur, soit il y a environ entre 84 et 72 Ma (millions d'années). Une datation paléomagnétostratigraphique « préliminaire », par Dashzeveg et al. 2005 citée par Bolortsetseg Minjin[1] indique un âge Campanien supérieur pour la formation.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a été découverte en 1922 par une expédition conduite par Roy Chapman Andrews. Son âge n'est pas clairement établi ; il se place entre le Santonien terminal et le Campanien supérieur, soit il y a environ entre 84 et 72 Ma (millions d'années). Une datation paléomagnétostratigraphique « préliminaire », par Dashzeveg et al. 2005 citée par Bolortsetseg Minjin indique un âge Campanien supérieur pour la formation.
 La localité type est le célèbre site des Flaming Cliffs (« falaises flamboyantes »), connues localement sous le nom de Bayanzag (« riche en Haloxylon ») ou Oulan-Ereg (« falaises rouges »).
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Environnement actuel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La région où affleure la formation de Djadokhta est constituée d'un habitat aride fait de dunes de sable, d'un peu d'eau douce dans les oasis et les arroyos. Le climat actuel dans la plupart des sites de la Formation de Djadokhta diffère peu de ce qu'il était il y a quelque 80 millions d'années, sauf qu'il est un peu plus chaud et peut-être un peu moins aride. Cela témoigne du fait que l'endroit a longtemps été loin de toute source importante d'évaporation car peu de précipitations y tombent ou y arrivent, bien avant même que l'Himalaya ne se soulève et empêche l'arrivée des nuages sur l'actuel désert de Gobi.
 </t>
@@ -575,10 +591,12 @@
           <t>Géologie et paléoenvironnement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La formation est constituée de grès et de grès calcaires rouges ou blanc-jaunâtre, concrétionnés, déposés dans un environnement continental de climat semi-aride avec des sédiments de type éolien (dunes de sable) ou fluviatile (alluvions) dans des réseaux temporaires de rivières en tresse. Dans ces grès s'intercalent des passées de conglomérats et de calcaires fins[2].
-Ce paysage de steppe semi-aride était drainé par des cours d'eau intermittents et subissait de temps en temps des tempêtes de poussière et de sable, favorables à une enfouissement rapide et à une fossilisation des animaux piégés[2]. L'humidité était saisonnière. Les animaux présents comprenaient des tortues terrestres et des crocodiliens, des lézards, des mammifères et des dinosaures variés. Il n'y avait pas d'animaux aquatiques : on n'y trouve notamment aucun poisson ce qui témoigne du caractère intermittent des cours d'eau. La majorité de la faune était de taille petite à moyenne[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La formation est constituée de grès et de grès calcaires rouges ou blanc-jaunâtre, concrétionnés, déposés dans un environnement continental de climat semi-aride avec des sédiments de type éolien (dunes de sable) ou fluviatile (alluvions) dans des réseaux temporaires de rivières en tresse. Dans ces grès s'intercalent des passées de conglomérats et de calcaires fins.
+Ce paysage de steppe semi-aride était drainé par des cours d'eau intermittents et subissait de temps en temps des tempêtes de poussière et de sable, favorables à une enfouissement rapide et à une fossilisation des animaux piégés. L'humidité était saisonnière. Les animaux présents comprenaient des tortues terrestres et des crocodiliens, des lézards, des mammifères et des dinosaures variés. Il n'y avait pas d'animaux aquatiques : on n'y trouve notamment aucun poisson ce qui témoigne du caractère intermittent des cours d'eau. La majorité de la faune était de taille petite à moyenne.
 </t>
         </is>
       </c>
@@ -607,11 +625,13 @@
           <t>Paléontologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les principales découvertes de fossiles sur le site ont été les premiers œufs de dinosaures (un embryon, probablement d’Oviraptor) et plusieurs dinosaures notamment Protoceratops, Pinacosaurus et Velociraptor.
-La faune de la formation de Djadokhta est très similaire à celle de la formation de Bayan Mandahu située à environ 300 kilomètres plus au sud-est en Chine (Mongolie-Intérieure). Les deux sites partagent un grand nombre de mêmes genres, mais ils diffèrent en matière d'espèces. Par exemple, le mammifère le plus commun dans le Djadokhta est Kryptobaatar dashzevegi, tandis que dans le Bayan Mandahu, c'est le Kryptobaatar mandahuensis étroitement lié. De même, la faune de dinosaures de la formation de Djadokhta comprend Protoceratops andrewsi et Velociraptor mongoliensis, celle du Bayan Mandahu Protoceratops hellenikorhinus et Velociraptor osmolskae[5].
-Il est probable que la formation de Bayan Mandahu, un peu plus jeune, peut-être d'un million années, regroupe des animaux dérivés, peut-être les descendants directs de leurs homologues de Djadokhta[6].
+La faune de la formation de Djadokhta est très similaire à celle de la formation de Bayan Mandahu située à environ 300 kilomètres plus au sud-est en Chine (Mongolie-Intérieure). Les deux sites partagent un grand nombre de mêmes genres, mais ils diffèrent en matière d'espèces. Par exemple, le mammifère le plus commun dans le Djadokhta est Kryptobaatar dashzevegi, tandis que dans le Bayan Mandahu, c'est le Kryptobaatar mandahuensis étroitement lié. De même, la faune de dinosaures de la formation de Djadokhta comprend Protoceratops andrewsi et Velociraptor mongoliensis, celle du Bayan Mandahu Protoceratops hellenikorhinus et Velociraptor osmolskae.
+Il est probable que la formation de Bayan Mandahu, un peu plus jeune, peut-être d'un million années, regroupe des animaux dérivés, peut-être les descendants directs de leurs homologues de Djadokhta.
 </t>
         </is>
       </c>
@@ -642,13 +662,50 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Crocodylomorphes
-Lézards
-Mammifères
-Ornithischiens
-Un hadrosaure de classification incertaine a été trouvé dans la formation.
-Saurischiens
-Un sauropode de classification incertaine a été trouvé dans la formation.
+          <t>Ornithischiens</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un hadrosaure de classification incertaine a été trouvé dans la formation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Formation_de_Djadokhta</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Formation_de_Djadokhta</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Faune de la formation de Djadokhta</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Saurischiens</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un sauropode de classification incertaine a été trouvé dans la formation.
 </t>
         </is>
       </c>
